--- a/data/trans_orig/P24F-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24F-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FF1C97F-665C-4461-8D7E-F4BE88422EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E192831-0D01-4D7B-81B4-45D01E2EE95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7A1A8CC6-0E75-4073-AECA-2946C27E50BE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{27B73B9A-0678-4D5E-B350-B08BA566123A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="432">
   <si>
     <t>Población según si le gustaría dejar de fumar en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>5,61%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
   </si>
   <si>
     <t>2,35%</t>
@@ -88,16 +88,16 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>5,82%</t>
+    <t>5,69%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>No lo ha pensado</t>
@@ -106,28 +106,28 @@
     <t>29,32%</t>
   </si>
   <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
   </si>
   <si>
     <t>37,97%</t>
   </si>
   <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
   </si>
   <si>
     <t>32,09%</t>
   </si>
   <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
   </si>
   <si>
     <t>Sí le gustaría</t>
@@ -136,28 +136,28 @@
     <t>41,07%</t>
   </si>
   <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
   </si>
   <si>
     <t>42,95%</t>
   </si>
   <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
   </si>
   <si>
     <t>41,67%</t>
   </si>
   <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
   </si>
   <si>
     <t>No</t>
@@ -166,28 +166,28 @@
     <t>23,99%</t>
   </si>
   <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
   </si>
   <si>
     <t>16,73%</t>
   </si>
   <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
   </si>
   <si>
     <t>100%</t>
@@ -199,1111 +199,1129 @@
     <t>3,96%</t>
   </si>
   <si>
-    <t>2,66%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
   </si>
   <si>
     <t>5,46%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2015 (Tasa respuesta: 29,93%)</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
   </si>
   <si>
     <t>24,1%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2015 (Tasa respuesta: 29,93%)</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
   </si>
   <si>
     <t>20,41%</t>
@@ -1727,7 +1745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9E028D-38E4-49CC-8B4A-3AD56746E0C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0C819A-1131-45EB-A111-ACF0EC895724}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2114,7 +2132,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
         <v>31</v>
@@ -2123,13 +2141,13 @@
         <v>31149</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>62</v>
@@ -2138,13 +2156,13 @@
         <v>63528</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,13 +2177,13 @@
         <v>338723</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>192</v>
@@ -2174,13 +2192,13 @@
         <v>193230</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>525</v>
@@ -2189,13 +2207,13 @@
         <v>531953</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,13 +2228,13 @@
         <v>299394</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>225</v>
@@ -2225,13 +2243,13 @@
         <v>229115</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>519</v>
@@ -2240,13 +2258,13 @@
         <v>528509</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2279,13 @@
         <v>147309</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>92</v>
@@ -2276,13 +2294,13 @@
         <v>94563</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>232</v>
@@ -2291,13 +2309,13 @@
         <v>241872</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,7 +2371,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2365,13 +2383,13 @@
         <v>2652</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -2380,13 +2398,13 @@
         <v>11895</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -2395,13 +2413,13 @@
         <v>14548</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,13 +2434,13 @@
         <v>68020</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>39</v>
@@ -2431,13 +2449,13 @@
         <v>42688</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>107</v>
@@ -2446,13 +2464,13 @@
         <v>110708</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,13 +2485,13 @@
         <v>86622</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -2482,13 +2500,13 @@
         <v>54296</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>134</v>
@@ -2497,13 +2515,13 @@
         <v>140918</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2536,13 @@
         <v>33730</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -2533,13 +2551,13 @@
         <v>29855</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -2548,13 +2566,13 @@
         <v>63585</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,13 +2640,13 @@
         <v>56056</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -2637,13 +2655,13 @@
         <v>47194</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>101</v>
@@ -2652,13 +2670,13 @@
         <v>103250</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,7 +2904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7072AB7-C086-4C17-BEBC-446614EF2033}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4FCD99-B0FF-445F-B499-AB76F19D4A14}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3273,7 +3291,7 @@
         <v>198</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -3282,13 +3300,13 @@
         <v>8741</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -3297,13 +3315,13 @@
         <v>22357</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,13 +3336,13 @@
         <v>138483</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>90</v>
@@ -3333,13 +3351,13 @@
         <v>98147</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M10" s="7">
         <v>221</v>
@@ -3348,13 +3366,13 @@
         <v>236630</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>212</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,7 +3438,7 @@
         <v>164069</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>222</v>
@@ -3450,7 +3468,7 @@
         <v>305786</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>227</v>
@@ -3512,7 +3530,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3593,10 +3611,10 @@
         <v>240</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M15" s="7">
         <v>44</v>
@@ -3605,13 +3623,13 @@
         <v>48809</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3644,13 @@
         <v>86404</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -3641,13 +3659,13 @@
         <v>86692</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>156</v>
@@ -3656,13 +3674,13 @@
         <v>173096</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,7 +3695,7 @@
         <v>45245</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>253</v>
+        <v>28</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>254</v>
@@ -3784,10 +3802,10 @@
         <v>262</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>165</v>
+        <v>263</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -3796,13 +3814,13 @@
         <v>13869</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -3811,13 +3829,13 @@
         <v>35747</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3850,13 @@
         <v>211171</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>132</v>
@@ -3847,13 +3865,13 @@
         <v>144034</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M20" s="7">
         <v>331</v>
@@ -3862,13 +3880,13 @@
         <v>355205</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3901,13 @@
         <v>828776</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="H21" s="7">
         <v>564</v>
@@ -3898,13 +3916,13 @@
         <v>612768</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M21" s="7">
         <v>1335</v>
@@ -3913,13 +3931,13 @@
         <v>1441545</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3952,13 @@
         <v>283349</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>288</v>
+        <v>157</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>185</v>
@@ -3949,13 +3967,13 @@
         <v>201502</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>189</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>455</v>
@@ -3964,13 +3982,13 @@
         <v>484851</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,7 +4063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5023C575-E896-4F5E-B8A3-01F99686AC93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A54FD7-030A-4E24-8E61-296FFB6DCD2A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4062,7 +4080,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4169,13 +4187,13 @@
         <v>8692</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4184,13 +4202,13 @@
         <v>2921</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>298</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -4199,13 +4217,13 @@
         <v>11613</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4238,13 @@
         <v>26483</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -4235,13 +4253,13 @@
         <v>19994</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -4250,13 +4268,13 @@
         <v>46478</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,13 +4289,13 @@
         <v>122724</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H6" s="7">
         <v>73</v>
@@ -4286,13 +4304,13 @@
         <v>74514</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M6" s="7">
         <v>189</v>
@@ -4301,13 +4319,13 @@
         <v>197239</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4340,13 @@
         <v>64785</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -4337,13 +4355,13 @@
         <v>35548</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>96</v>
@@ -4352,13 +4370,13 @@
         <v>100333</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4444,13 @@
         <v>19844</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H9" s="7">
         <v>17</v>
@@ -4441,13 +4459,13 @@
         <v>17047</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M9" s="7">
         <v>36</v>
@@ -4456,13 +4474,13 @@
         <v>36891</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4495,13 @@
         <v>165557</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>341</v>
       </c>
       <c r="H10" s="7">
         <v>138</v>
@@ -4492,13 +4510,13 @@
         <v>142841</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>338</v>
+        <v>153</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>289</v>
@@ -4507,13 +4525,13 @@
         <v>308398</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4546,13 @@
         <v>445792</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H11" s="7">
         <v>359</v>
@@ -4543,13 +4561,13 @@
         <v>369821</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M11" s="7">
         <v>774</v>
@@ -4558,13 +4576,13 @@
         <v>815613</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4597,13 @@
         <v>162295</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H12" s="7">
         <v>121</v>
@@ -4594,13 +4612,13 @@
         <v>126209</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M12" s="7">
         <v>272</v>
@@ -4609,13 +4627,13 @@
         <v>288504</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,7 +4689,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4683,13 +4701,13 @@
         <v>4381</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -4698,13 +4716,13 @@
         <v>2932</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -4713,13 +4731,13 @@
         <v>7313</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4752,13 @@
         <v>36257</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H15" s="7">
         <v>18</v>
@@ -4749,13 +4767,13 @@
         <v>18273</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M15" s="7">
         <v>49</v>
@@ -4764,13 +4782,13 @@
         <v>54531</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +4803,13 @@
         <v>73919</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H16" s="7">
         <v>74</v>
@@ -4800,13 +4818,13 @@
         <v>75379</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M16" s="7">
         <v>140</v>
@@ -4815,13 +4833,13 @@
         <v>149297</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +4854,13 @@
         <v>21597</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -4851,13 +4869,13 @@
         <v>23868</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -4866,13 +4884,13 @@
         <v>45465</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +4958,13 @@
         <v>32917</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -4955,10 +4973,10 @@
         <v>22900</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>201</v>
+        <v>402</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>229</v>
@@ -4970,13 +4988,13 @@
         <v>55817</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,13 +5009,13 @@
         <v>228297</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H20" s="7">
         <v>176</v>
@@ -5006,13 +5024,13 @@
         <v>181109</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M20" s="7">
         <v>384</v>
@@ -5021,13 +5039,13 @@
         <v>409406</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,13 +5060,13 @@
         <v>642435</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="H21" s="7">
         <v>506</v>
@@ -5057,13 +5075,13 @@
         <v>519714</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="M21" s="7">
         <v>1103</v>
@@ -5072,13 +5090,13 @@
         <v>1162149</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5111,13 @@
         <v>248677</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>427</v>
       </c>
       <c r="H22" s="7">
         <v>176</v>
@@ -5108,13 +5126,13 @@
         <v>185625</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>410</v>
@@ -5123,13 +5141,13 @@
         <v>434302</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P24F-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24F-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E192831-0D01-4D7B-81B4-45D01E2EE95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11912199-BB18-464F-91B0-5ECD37379108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{27B73B9A-0678-4D5E-B350-B08BA566123A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E68DA6E9-2F97-4E7E-933D-68ACF589749A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="431">
   <si>
     <t>Población según si le gustaría dejar de fumar en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>5,61%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>2,35%</t>
@@ -88,16 +88,16 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>5,69%</t>
+    <t>5,96%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
   </si>
   <si>
     <t>No lo ha pensado</t>
@@ -106,1234 +106,1231 @@
     <t>29,32%</t>
   </si>
   <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
   </si>
   <si>
     <t>37,97%</t>
   </si>
   <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
   </si>
   <si>
     <t>32,09%</t>
   </si>
   <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>Sí le gustaría</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
     <t>28,03%</t>
   </si>
   <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>Sí le gustaría</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2016 (Tasa respuesta: 29,93%)</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
   </si>
   <si>
     <t>23,23%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
   </si>
   <si>
     <t>22,96%</t>
   </si>
   <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
   </si>
   <si>
     <t>24,26%</t>
   </si>
   <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2015 (Tasa respuesta: 29,93%)</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
     <t>20,41%</t>
   </si>
   <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0C819A-1131-45EB-A111-ACF0EC895724}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEA66A0-940F-4701-BE9D-91C0AEFE46EA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2132,7 +2129,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>31</v>
@@ -2141,13 +2138,13 @@
         <v>31149</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>62</v>
@@ -2156,13 +2153,13 @@
         <v>63528</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,13 +2174,13 @@
         <v>338723</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>192</v>
@@ -2192,13 +2189,13 @@
         <v>193230</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>525</v>
@@ -2207,13 +2204,13 @@
         <v>531953</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,13 +2225,13 @@
         <v>299394</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>225</v>
@@ -2243,13 +2240,13 @@
         <v>229115</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>519</v>
@@ -2258,13 +2255,13 @@
         <v>528509</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2276,13 @@
         <v>147309</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>92</v>
@@ -2294,13 +2291,13 @@
         <v>94563</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>232</v>
@@ -2309,13 +2306,13 @@
         <v>241872</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,7 +2368,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2383,13 +2380,13 @@
         <v>2652</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -2398,13 +2395,13 @@
         <v>11895</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -2413,13 +2410,13 @@
         <v>14548</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2431,13 @@
         <v>68020</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>39</v>
@@ -2449,13 +2446,13 @@
         <v>42688</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>107</v>
@@ -2464,13 +2461,13 @@
         <v>110708</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2482,13 @@
         <v>86622</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -2500,13 +2497,13 @@
         <v>54296</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>134</v>
@@ -2515,13 +2512,13 @@
         <v>140918</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2533,13 @@
         <v>33730</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -2551,13 +2548,13 @@
         <v>29855</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -2566,13 +2563,13 @@
         <v>63585</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,13 +2637,13 @@
         <v>56056</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -2655,13 +2652,13 @@
         <v>47194</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>101</v>
@@ -2670,13 +2667,13 @@
         <v>103250</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,13 +2688,13 @@
         <v>516578</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>295</v>
@@ -2706,13 +2703,13 @@
         <v>302954</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>805</v>
@@ -2721,13 +2718,13 @@
         <v>819533</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,13 +2739,13 @@
         <v>539879</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>353</v>
@@ -2757,7 +2754,7 @@
         <v>359231</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>146</v>
@@ -2904,7 +2901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4FCD99-B0FF-445F-B499-AB76F19D4A14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC67FAF-EBDD-4327-9404-A786950459B6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3259,7 +3256,7 @@
         <v>502</v>
       </c>
       <c r="N8" s="7">
-        <v>531702</v>
+        <v>531701</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -3354,7 +3351,7 @@
         <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>210</v>
@@ -3372,7 +3369,7 @@
         <v>212</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,13 +3384,13 @@
         <v>534857</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H11" s="7">
         <v>355</v>
@@ -3402,13 +3399,13 @@
         <v>386061</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M11" s="7">
         <v>851</v>
@@ -3417,13 +3414,13 @@
         <v>920919</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,10 +3435,10 @@
         <v>164069</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>222</v>
+        <v>44</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>223</v>
@@ -3468,13 +3465,13 @@
         <v>305786</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>227</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,7 +3527,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3542,7 +3539,7 @@
         <v>6047</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>229</v>
+        <v>91</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>230</v>
@@ -3695,13 +3692,13 @@
         <v>45245</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -3710,13 +3707,13 @@
         <v>23668</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -3725,13 +3722,13 @@
         <v>68914</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3796,13 @@
         <v>21878</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -3814,13 +3811,13 @@
         <v>13869</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -3829,13 +3826,13 @@
         <v>35747</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,7 +3853,7 @@
         <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>85</v>
       </c>
       <c r="H20" s="7">
         <v>132</v>
@@ -3865,13 +3862,13 @@
         <v>144034</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M20" s="7">
         <v>331</v>
@@ -3880,13 +3877,13 @@
         <v>355205</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3898,13 @@
         <v>828776</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H21" s="7">
         <v>564</v>
@@ -3916,13 +3913,13 @@
         <v>612768</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M21" s="7">
         <v>1335</v>
@@ -3931,13 +3928,13 @@
         <v>1441545</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +3949,13 @@
         <v>283349</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>185</v>
@@ -3967,13 +3964,13 @@
         <v>201502</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>455</v>
@@ -3982,13 +3979,13 @@
         <v>484851</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,7 +4060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A54FD7-030A-4E24-8E61-296FFB6DCD2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0126489F-BEF4-4D41-8C68-548F24C96877}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4080,7 +4077,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4187,13 +4184,13 @@
         <v>8692</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4358,10 +4355,10 @@
         <v>326</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>121</v>
+        <v>327</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>96</v>
@@ -4370,13 +4367,13 @@
         <v>100333</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4441,13 @@
         <v>19844</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H9" s="7">
         <v>17</v>
@@ -4459,13 +4456,13 @@
         <v>17047</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M9" s="7">
         <v>36</v>
@@ -4474,13 +4471,13 @@
         <v>36891</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4492,13 @@
         <v>165557</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H10" s="7">
         <v>138</v>
@@ -4510,13 +4507,13 @@
         <v>142841</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>343</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>289</v>
@@ -4525,13 +4522,13 @@
         <v>308398</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4543,13 @@
         <v>445792</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>349</v>
+        <v>285</v>
       </c>
       <c r="H11" s="7">
         <v>359</v>
@@ -4561,13 +4558,13 @@
         <v>369821</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M11" s="7">
         <v>774</v>
@@ -4576,13 +4573,13 @@
         <v>815613</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4594,13 @@
         <v>162295</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H12" s="7">
         <v>121</v>
@@ -4612,13 +4609,13 @@
         <v>126209</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M12" s="7">
         <v>272</v>
@@ -4627,13 +4624,13 @@
         <v>288504</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,7 +4686,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4701,13 +4698,13 @@
         <v>4381</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -4716,7 +4713,7 @@
         <v>2932</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>368</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>369</v>
@@ -4773,7 +4770,7 @@
         <v>378</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="M15" s="7">
         <v>49</v>
@@ -4782,13 +4779,13 @@
         <v>54531</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>313</v>
+        <v>381</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4800,13 @@
         <v>73919</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>74</v>
@@ -4818,13 +4815,13 @@
         <v>75379</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>140</v>
@@ -4833,13 +4830,13 @@
         <v>149297</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,13 +4851,13 @@
         <v>21597</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -4869,13 +4866,13 @@
         <v>23868</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>393</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -4884,13 +4881,13 @@
         <v>45465</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4955,13 @@
         <v>32917</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -4973,13 +4970,13 @@
         <v>22900</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>229</v>
+        <v>59</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -5012,10 +5009,10 @@
         <v>407</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="H20" s="7">
         <v>176</v>
@@ -5024,13 +5021,13 @@
         <v>181109</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>411</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>260</v>
       </c>
       <c r="M20" s="7">
         <v>384</v>
@@ -5039,13 +5036,13 @@
         <v>409406</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5057,13 @@
         <v>642435</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="H21" s="7">
         <v>506</v>
@@ -5075,13 +5072,13 @@
         <v>519714</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M21" s="7">
         <v>1103</v>
@@ -5090,13 +5087,13 @@
         <v>1162149</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5108,13 @@
         <v>248677</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H22" s="7">
         <v>176</v>
@@ -5126,13 +5123,13 @@
         <v>185625</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>410</v>
@@ -5141,13 +5138,13 @@
         <v>434302</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P24F-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24F-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11912199-BB18-464F-91B0-5ECD37379108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A15CFF4A-773E-4137-8077-391F6D6295B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E68DA6E9-2F97-4E7E-933D-68ACF589749A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6507906E-94B8-403E-8D78-F5D991E2DED9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="426">
   <si>
     <t>Población según si le gustaría dejar de fumar en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>5,61%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
   </si>
   <si>
     <t>2,35%</t>
@@ -88,16 +88,16 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>5,96%</t>
+    <t>5,82%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
   </si>
   <si>
     <t>No lo ha pensado</t>
@@ -106,28 +106,28 @@
     <t>29,32%</t>
   </si>
   <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
   </si>
   <si>
     <t>37,97%</t>
   </si>
   <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
   </si>
   <si>
     <t>32,09%</t>
   </si>
   <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
   </si>
   <si>
     <t>Sí le gustaría</t>
@@ -136,28 +136,28 @@
     <t>41,07%</t>
   </si>
   <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
   </si>
   <si>
     <t>42,95%</t>
   </si>
   <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
   </si>
   <si>
     <t>41,67%</t>
   </si>
   <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
   </si>
   <si>
     <t>No</t>
@@ -166,28 +166,28 @@
     <t>23,99%</t>
   </si>
   <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
   </si>
   <si>
     <t>16,73%</t>
   </si>
   <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -202,1135 +202,1120 @@
     <t>2,66%</t>
   </si>
   <si>
-    <t>5,5%</t>
+    <t>5,46%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
   </si>
   <si>
     <t>41,42%</t>
   </si>
   <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
   </si>
   <si>
     <t>35,26%</t>
   </si>
   <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
   </si>
   <si>
     <t>38,95%</t>
   </si>
   <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
   </si>
   <si>
     <t>36,61%</t>
   </si>
   <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
   </si>
   <si>
     <t>41,8%</t>
   </si>
   <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
   </si>
   <si>
     <t>38,69%</t>
   </si>
   <si>
-    <t>35,92%</t>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
   </si>
   <si>
     <t>41,61%</t>
   </si>
   <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2016 (Tasa respuesta: 29,93%)</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
   </si>
   <si>
     <t>21,07%</t>
   </si>
   <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2016 (Tasa respuesta: 29,93%)</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
+    <t>22,93%</t>
   </si>
 </sst>
 </file>
@@ -1742,7 +1727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEA66A0-940F-4701-BE9D-91C0AEFE46EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7309F4B6-9DA1-4F7A-AACE-B2507C120F59}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2673,7 +2658,7 @@
         <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,13 +2673,13 @@
         <v>516578</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>295</v>
@@ -2703,13 +2688,13 @@
         <v>302954</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>805</v>
@@ -2718,13 +2703,13 @@
         <v>819533</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2724,13 @@
         <v>539879</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>353</v>
@@ -2754,7 +2739,7 @@
         <v>359231</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>146</v>
@@ -2901,7 +2886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC67FAF-EBDD-4327-9404-A786950459B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E0C4E8-FADF-4DE2-B78D-337397D6468F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3256,7 +3241,7 @@
         <v>502</v>
       </c>
       <c r="N8" s="7">
-        <v>531701</v>
+        <v>531702</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -3288,7 +3273,7 @@
         <v>198</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -3297,13 +3282,13 @@
         <v>8741</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -3312,13 +3297,13 @@
         <v>22357</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,13 +3318,13 @@
         <v>138483</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>90</v>
@@ -3348,13 +3333,13 @@
         <v>98147</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M10" s="7">
         <v>221</v>
@@ -3363,13 +3348,13 @@
         <v>236630</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,13 +3369,13 @@
         <v>534857</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H11" s="7">
         <v>355</v>
@@ -3399,13 +3384,13 @@
         <v>386061</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M11" s="7">
         <v>851</v>
@@ -3414,13 +3399,13 @@
         <v>920919</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,7 +3423,7 @@
         <v>122</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>223</v>
@@ -3465,13 +3450,13 @@
         <v>305786</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,7 +3524,7 @@
         <v>6047</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>230</v>
@@ -3608,10 +3593,10 @@
         <v>240</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M15" s="7">
         <v>44</v>
@@ -3620,13 +3605,13 @@
         <v>48809</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3626,13 @@
         <v>86404</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -3656,13 +3641,13 @@
         <v>86692</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>156</v>
@@ -3671,13 +3656,13 @@
         <v>173096</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,13 +3677,13 @@
         <v>45245</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -3707,13 +3692,13 @@
         <v>23668</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -3722,13 +3707,13 @@
         <v>68914</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +3781,13 @@
         <v>21878</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -3811,13 +3796,13 @@
         <v>13869</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -3826,13 +3811,13 @@
         <v>35747</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3832,13 @@
         <v>211171</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H20" s="7">
         <v>132</v>
@@ -3862,13 +3847,13 @@
         <v>144034</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>123</v>
+        <v>273</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M20" s="7">
         <v>331</v>
@@ -3877,13 +3862,13 @@
         <v>355205</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3883,13 @@
         <v>828776</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="H21" s="7">
         <v>564</v>
@@ -3967,10 +3952,10 @@
         <v>290</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M22" s="7">
         <v>455</v>
@@ -3979,13 +3964,13 @@
         <v>484851</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,7 +4045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0126489F-BEF4-4D41-8C68-548F24C96877}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3036352-E7CF-46C9-98D3-262EF4DEBBE7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4077,7 +4062,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4184,13 +4169,13 @@
         <v>8692</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>299</v>
+        <v>130</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4199,13 +4184,13 @@
         <v>2921</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>201</v>
+        <v>298</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -4214,13 +4199,13 @@
         <v>11613</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4220,13 @@
         <v>26483</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -4250,13 +4235,13 @@
         <v>19994</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -4265,13 +4250,13 @@
         <v>46478</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4271,13 @@
         <v>122724</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H6" s="7">
         <v>73</v>
@@ -4301,13 +4286,13 @@
         <v>74514</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M6" s="7">
         <v>189</v>
@@ -4316,13 +4301,13 @@
         <v>197239</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4322,13 @@
         <v>64785</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -4352,13 +4337,13 @@
         <v>35548</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>327</v>
+        <v>122</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M7" s="7">
         <v>96</v>
@@ -4367,13 +4352,13 @@
         <v>100333</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4426,13 @@
         <v>19844</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H9" s="7">
         <v>17</v>
@@ -4456,13 +4441,13 @@
         <v>17047</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M9" s="7">
         <v>36</v>
@@ -4471,13 +4456,13 @@
         <v>36891</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4477,13 @@
         <v>165557</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>341</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>342</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>138</v>
@@ -4507,13 +4492,13 @@
         <v>142841</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M10" s="7">
         <v>289</v>
@@ -4522,13 +4507,13 @@
         <v>308398</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4528,13 @@
         <v>445792</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="H11" s="7">
         <v>359</v>
@@ -4558,13 +4543,13 @@
         <v>369821</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M11" s="7">
         <v>774</v>
@@ -4573,13 +4558,13 @@
         <v>815613</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4579,13 @@
         <v>162295</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H12" s="7">
         <v>121</v>
@@ -4609,13 +4594,13 @@
         <v>126209</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M12" s="7">
         <v>272</v>
@@ -4624,13 +4609,13 @@
         <v>288504</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4683,13 @@
         <v>4381</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -4713,13 +4698,13 @@
         <v>2932</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>365</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -4728,13 +4713,13 @@
         <v>7313</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4734,13 @@
         <v>36257</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H15" s="7">
         <v>18</v>
@@ -4764,13 +4749,13 @@
         <v>18273</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="M15" s="7">
         <v>49</v>
@@ -4779,13 +4764,13 @@
         <v>54531</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>381</v>
+        <v>311</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4785,13 @@
         <v>73919</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>74</v>
@@ -4815,13 +4800,13 @@
         <v>75379</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>140</v>
@@ -4830,13 +4815,13 @@
         <v>149297</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,13 +4836,13 @@
         <v>21597</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -4866,13 +4851,13 @@
         <v>23868</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>390</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -4881,13 +4866,13 @@
         <v>45465</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4940,13 @@
         <v>32917</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -4970,13 +4955,13 @@
         <v>22900</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>201</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>399</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>59</v>
+        <v>229</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -4985,13 +4970,13 @@
         <v>55817</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +4991,13 @@
         <v>228297</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>195</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
         <v>176</v>
@@ -5021,13 +5006,13 @@
         <v>181109</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>260</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
         <v>384</v>
@@ -5036,13 +5021,13 @@
         <v>409406</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>412</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,13 +5042,13 @@
         <v>642435</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H21" s="7">
         <v>506</v>
@@ -5072,13 +5057,13 @@
         <v>519714</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M21" s="7">
         <v>1103</v>
@@ -5087,13 +5072,13 @@
         <v>1162149</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,13 +5093,13 @@
         <v>248677</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>425</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>176</v>
@@ -5123,13 +5108,13 @@
         <v>185625</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>427</v>
+        <v>85</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>410</v>
@@ -5138,13 +5123,13 @@
         <v>434302</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>81</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P24F-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24F-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A15CFF4A-773E-4137-8077-391F6D6295B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66B2C82C-C997-4152-B682-3996396E313A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6507906E-94B8-403E-8D78-F5D991E2DED9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{01C9D842-4B62-411B-9EF8-391DADC751C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1727,7 +1727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7309F4B6-9DA1-4F7A-AACE-B2507C120F59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9343DBC0-3D9D-4746-8563-FD273748387B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2171,7 +2171,7 @@
         <v>192</v>
       </c>
       <c r="I10" s="7">
-        <v>193230</v>
+        <v>193229</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -2222,7 +2222,7 @@
         <v>225</v>
       </c>
       <c r="I11" s="7">
-        <v>229115</v>
+        <v>229114</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -2324,7 +2324,7 @@
         <v>540</v>
       </c>
       <c r="I13" s="7">
-        <v>548056</v>
+        <v>548055</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -2886,7 +2886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E0C4E8-FADF-4DE2-B78D-337397D6468F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BB7771-6BFF-4E3B-89B1-726BA152CDCE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3241,7 +3241,7 @@
         <v>502</v>
       </c>
       <c r="N8" s="7">
-        <v>531702</v>
+        <v>531701</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -4045,7 +4045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3036352-E7CF-46C9-98D3-262EF4DEBBE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12DC741-AD7E-4BB9-B8D8-99D954B947FB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
